--- a/装修.xlsx
+++ b/装修.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑" sheetId="2" r:id="rId1"/>
@@ -792,9 +792,6 @@
     <t>瓷砖保护贴纸，防止油漆弄脏； 购买乳胶漆送货； 瓷砖美缝； 厨卫吊顶</t>
   </si>
   <si>
-    <t>铲除老腻子，挂网，阴阳角保护</t>
-  </si>
-  <si>
     <t>腻子、乳胶漆晾干通风， 准备全屋定制柜子， 木门定制、淋浴房移门定制 这些定制起码都得一个月的制作周期，所以提前定最好</t>
   </si>
   <si>
@@ -804,9 +801,6 @@
     <t>1-2天的工作量，没啥特别注意的</t>
   </si>
   <si>
-    <t>橱柜的功能性自己想好，抽屉、拉篮、厨房电器位置等，记得水槽和灶台间留好案板的位置。板材尽量也是选环保的吧，主要还是看封边，封边封的好就味道小，不然味道都很大。我家是小厂的全上海文信爱格板。价单和设计图也放出来供大家参考了。 ./橱柜设计&amp;报价</t>
-  </si>
-  <si>
     <t>厨卫吊顶</t>
   </si>
   <si>
@@ -816,9 +810,6 @@
     <t>全屋定制</t>
   </si>
   <si>
-    <t>这块花费会比较大，坑也很多，b站搜 迷瞪，看看讲解视频吧，我们家门板都用了上海文信的爱格板，柜体为了省钱用了装修公司上海工厂的板，注意封边应该都还好。 设计上最好也是自己能给给意见，多看看酷家乐的图，结合自己家好好想想，自己设计的才是最喜欢的。同样给出我家的设计和报价。./全屋定制设计&amp;报价</t>
-  </si>
-  <si>
     <t>家装小物件</t>
   </si>
   <si>
@@ -828,9 +819,6 @@
     <t>木门安装</t>
   </si>
   <si>
-    <t>木门市场上差价也比较大， TATA木门一个2-3000多，其他的便宜点，尽量选实木&gt;实木拼接，看个人预算了。我觉得我家木门的味道还是比较大的</t>
-  </si>
-  <si>
     <t>门套踢脚线，地板</t>
   </si>
   <si>
@@ -838,9 +826,6 @@
   </si>
   <si>
     <t>家电家具</t>
-  </si>
-  <si>
-    <t>这些就见人见智了，推荐些一定要买的， 13套+的洗碗机！ 洗衣机+烘干机！厨房垃圾处理器！ 云鲸拖地机器人！300L+的冰箱！预算够就上日本电子品牌的，不够国产也一样。日本房间小，电器的空间利用率稍微高一点，占地面积小了也是变相省钱了。</t>
   </si>
   <si>
     <t>确定装修设计方案</t>
@@ -1910,6 +1895,140 @@
   </si>
   <si>
     <t>个人觉得微波炉就好了，其他两个都不要</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>铲除老腻子，挂网，阴阳角保护
+腻子、胶水要注意甲醛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>腻子、胶水要注意甲醛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜的功能性自己想好，抽屉、拉篮、厨房电器位置等，记得水槽和灶台间留好案板的位置。板材尽量也是选环保的吧，主要还是看封边，封边封的好就味道小，不然味道都很大。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这块花费会比较大，坑也很多，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站搜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>迷瞪，看看讲解视频吧</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>木门市场上差价也比较大，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TATA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>木门一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2-3000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多，其他的便宜点，尽量选实木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实木拼接，看个人预算了。</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1979,7 +2098,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1989,6 +2108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2124,7 +2249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2190,6 +2315,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2680,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2698,13 +2826,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>22</v>
@@ -2746,7 +2874,7 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B4" s="3">
         <v>3000</v>
@@ -2763,7 +2891,7 @@
     </row>
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B5" s="3">
         <v>5000</v>
@@ -2780,7 +2908,7 @@
     </row>
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B6" s="3">
         <v>3000</v>
@@ -2797,7 +2925,7 @@
     </row>
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B7" s="3">
         <v>6000</v>
@@ -2814,7 +2942,7 @@
     </row>
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B8" s="3">
         <v>2000</v>
@@ -2838,7 +2966,7 @@
         <v>50000</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2857,7 +2985,7 @@
         <v>1500</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2876,7 +3004,7 @@
         <v>3000</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2895,7 +3023,7 @@
         <v>6800</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2914,7 +3042,7 @@
         <v>13600</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2933,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2952,7 +3080,7 @@
         <v>5000</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2988,7 +3116,7 @@
         <v>2500</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3007,7 +3135,7 @@
         <v>10000</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3026,7 +3154,7 @@
         <v>4000</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -3045,7 +3173,7 @@
         <v>7000</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3149,7 +3277,7 @@
         <v>31000</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -3168,7 +3296,7 @@
         <v>60000</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3423,7 +3551,7 @@
     </row>
     <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B43" s="3">
         <v>6000</v>
@@ -3432,7 +3560,7 @@
         <v>6000</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -3621,8 +3749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3636,7 +3764,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3658,10 +3786,10 @@
         <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>82</v>
@@ -3669,13 +3797,13 @@
     </row>
     <row r="4" spans="1:5" ht="66" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -3684,10 +3812,10 @@
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -3700,7 +3828,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -3713,7 +3841,7 @@
         <v>87</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3726,7 +3854,7 @@
         <v>89</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3749,7 +3877,7 @@
     </row>
     <row r="10" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>94</v>
@@ -3762,34 +3890,34 @@
     </row>
     <row r="11" spans="1:5" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>123</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="69" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>122</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -3797,21 +3925,21 @@
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="86.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -3819,21 +3947,21 @@
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="51.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -3841,22 +3969,20 @@
     </row>
     <row r="18" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="69" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="11"/>
@@ -3867,6 +3993,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3874,7 +4001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:J36"/>
     </sheetView>
   </sheetViews>
@@ -3888,80 +4015,80 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
         <v>130</v>
       </c>
-      <c r="B1" t="s">
-        <v>135</v>
-      </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="21" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -4105,10 +4232,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B13"/>
+  <dimension ref="B1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4119,67 +4246,72 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B14" s="22" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
